--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.60110933333333</v>
+        <v>94.403014</v>
       </c>
       <c r="H2">
-        <v>289.803328</v>
+        <v>283.209042</v>
       </c>
       <c r="I2">
-        <v>0.1481994495772009</v>
+        <v>0.1353009388150703</v>
       </c>
       <c r="J2">
-        <v>0.1555774554226776</v>
+        <v>0.1495411131326121</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.37692366666667</v>
+        <v>31.61349966666667</v>
       </c>
       <c r="N2">
-        <v>130.130771</v>
+        <v>94.84049899999999</v>
       </c>
       <c r="O2">
-        <v>0.9914401803448945</v>
+        <v>0.9864449253320818</v>
       </c>
       <c r="P2">
-        <v>0.9931650303696206</v>
+        <v>0.9897213119532253</v>
       </c>
       <c r="Q2">
-        <v>4190.258945667321</v>
+        <v>2984.409651621329</v>
       </c>
       <c r="R2">
-        <v>37712.33051100589</v>
+        <v>26859.68686459196</v>
       </c>
       <c r="S2">
-        <v>0.1469308890158341</v>
+        <v>0.1334669244867926</v>
       </c>
       <c r="T2">
-        <v>0.1545140882396918</v>
+        <v>0.1480040266805545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.60110933333333</v>
+        <v>94.403014</v>
       </c>
       <c r="H3">
-        <v>289.803328</v>
+        <v>283.209042</v>
       </c>
       <c r="I3">
-        <v>0.1481994495772009</v>
+        <v>0.1353009388150703</v>
       </c>
       <c r="J3">
-        <v>0.1555774554226776</v>
+        <v>0.1495411131326121</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.193878</v>
       </c>
       <c r="O3">
-        <v>0.001477117501170476</v>
+        <v>0.002016543262109296</v>
       </c>
       <c r="P3">
-        <v>0.001479687304380924</v>
+        <v>0.002023241026166126</v>
       </c>
       <c r="Q3">
-        <v>6.242943291776</v>
+        <v>6.100889182764</v>
       </c>
       <c r="R3">
-        <v>56.186489625984</v>
+        <v>54.908002644876</v>
       </c>
       <c r="S3">
-        <v>0.0002189080006343149</v>
+        <v>0.0002728401965245921</v>
       </c>
       <c r="T3">
-        <v>0.0002302059856368251</v>
+        <v>0.0003025577151884507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.60110933333333</v>
+        <v>94.403014</v>
       </c>
       <c r="H4">
-        <v>289.803328</v>
+        <v>283.209042</v>
       </c>
       <c r="I4">
-        <v>0.1481994495772009</v>
+        <v>0.1353009388150703</v>
       </c>
       <c r="J4">
-        <v>0.1555774554226776</v>
+        <v>0.1495411131326121</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,22 +688,22 @@
         <v>0.154531</v>
       </c>
       <c r="O4">
-        <v>0.001177340619221236</v>
+        <v>0.001607291424694971</v>
       </c>
       <c r="P4">
-        <v>0.001179388888029011</v>
+        <v>0.001612629896194914</v>
       </c>
       <c r="Q4">
-        <v>4.975955342129777</v>
+        <v>4.862730718811333</v>
       </c>
       <c r="R4">
-        <v>44.78359807916799</v>
+        <v>43.764576469302</v>
       </c>
       <c r="S4">
-        <v>0.000174481231733468</v>
+        <v>0.0002174680387106414</v>
       </c>
       <c r="T4">
-        <v>0.0001834863221533346</v>
+        <v>0.0002411544697479162</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.60110933333333</v>
+        <v>94.403014</v>
       </c>
       <c r="H5">
-        <v>289.803328</v>
+        <v>283.209042</v>
       </c>
       <c r="I5">
-        <v>0.1481994495772009</v>
+        <v>0.1353009388150703</v>
       </c>
       <c r="J5">
-        <v>0.1555774554226776</v>
+        <v>0.1495411131326121</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,43 +744,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.227952</v>
+        <v>0.3182755</v>
       </c>
       <c r="N5">
-        <v>0.455904</v>
+        <v>0.636551</v>
       </c>
       <c r="O5">
-        <v>0.005210161368904347</v>
+        <v>0.009931239981113902</v>
       </c>
       <c r="P5">
-        <v>0.003479483803301461</v>
+        <v>0.00664281712441367</v>
       </c>
       <c r="Q5">
-        <v>22.020416074752</v>
+        <v>30.046166482357</v>
       </c>
       <c r="R5">
-        <v>132.122496448512</v>
+        <v>180.276998894142</v>
       </c>
       <c r="S5">
-        <v>0.0007721430470800196</v>
+        <v>0.001343706093042472</v>
       </c>
       <c r="T5">
-        <v>0.0005413292363020616</v>
+        <v>0.0009933742671211976</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>96.60110933333333</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H6">
-        <v>289.803328</v>
+        <v>666.194488</v>
       </c>
       <c r="I6">
-        <v>0.1481994495772009</v>
+        <v>0.3182692862603769</v>
       </c>
       <c r="J6">
-        <v>0.1555774554226776</v>
+        <v>0.3517665417558616</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.030416</v>
+        <v>31.61349966666667</v>
       </c>
       <c r="N6">
-        <v>0.091248</v>
+        <v>94.84049899999999</v>
       </c>
       <c r="O6">
-        <v>0.000695200165809445</v>
+        <v>0.9864449253320818</v>
       </c>
       <c r="P6">
-        <v>0.0006964096346679382</v>
+        <v>0.9897213119532253</v>
       </c>
       <c r="Q6">
-        <v>2.938219341482666</v>
+        <v>7020.246408107723</v>
       </c>
       <c r="R6">
-        <v>26.44397407334399</v>
+        <v>63182.21767296951</v>
       </c>
       <c r="S6">
-        <v>0.0001030282819189385</v>
+        <v>0.3139551223206125</v>
       </c>
       <c r="T6">
-        <v>0.0001083456388934743</v>
+        <v>0.3481508432078604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>222.0648293333334</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H7">
-        <v>666.1944880000001</v>
+        <v>666.194488</v>
       </c>
       <c r="I7">
-        <v>0.340678132008771</v>
+        <v>0.3182692862603769</v>
       </c>
       <c r="J7">
-        <v>0.3576385543082982</v>
+        <v>0.3517665417558616</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>43.37692366666667</v>
+        <v>0.064626</v>
       </c>
       <c r="N7">
-        <v>130.130771</v>
+        <v>0.193878</v>
       </c>
       <c r="O7">
-        <v>0.9914401803448945</v>
+        <v>0.002016543262109296</v>
       </c>
       <c r="P7">
-        <v>0.9931650303696206</v>
+        <v>0.002023241026166126</v>
       </c>
       <c r="Q7">
-        <v>9632.489151043363</v>
+        <v>14.351161660496</v>
       </c>
       <c r="R7">
-        <v>86692.40235939027</v>
+        <v>129.160454944464</v>
       </c>
       <c r="S7">
-        <v>0.3377619886383377</v>
+        <v>0.0006418037847446978</v>
       </c>
       <c r="T7">
-        <v>0.3551941056509481</v>
+        <v>0.0007117084989130387</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>222.0648293333334</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H8">
-        <v>666.1944880000001</v>
+        <v>666.194488</v>
       </c>
       <c r="I8">
-        <v>0.340678132008771</v>
+        <v>0.3182692862603769</v>
       </c>
       <c r="J8">
-        <v>0.3576385543082982</v>
+        <v>0.3517665417558616</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.064626</v>
+        <v>0.05151033333333333</v>
       </c>
       <c r="N8">
-        <v>0.193878</v>
+        <v>0.154531</v>
       </c>
       <c r="O8">
-        <v>0.001477117501170476</v>
+        <v>0.001607291424694971</v>
       </c>
       <c r="P8">
-        <v>0.001479687304380924</v>
+        <v>0.001612629896194914</v>
       </c>
       <c r="Q8">
-        <v>14.351161660496</v>
+        <v>11.43863338056978</v>
       </c>
       <c r="R8">
-        <v>129.160454944464</v>
+        <v>102.947700425128</v>
       </c>
       <c r="S8">
-        <v>0.0005032216310562214</v>
+        <v>0.0005115514945500927</v>
       </c>
       <c r="T8">
-        <v>0.0005291932283671363</v>
+        <v>0.0005672692417165991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>222.0648293333334</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H9">
-        <v>666.1944880000001</v>
+        <v>666.194488</v>
       </c>
       <c r="I9">
-        <v>0.340678132008771</v>
+        <v>0.3182692862603769</v>
       </c>
       <c r="J9">
-        <v>0.3576385543082982</v>
+        <v>0.3517665417558616</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05151033333333333</v>
+        <v>0.3182755</v>
       </c>
       <c r="N9">
-        <v>0.154531</v>
+        <v>0.636551</v>
       </c>
       <c r="O9">
-        <v>0.001177340619221236</v>
+        <v>0.009931239981113902</v>
       </c>
       <c r="P9">
-        <v>0.001179388888029011</v>
+        <v>0.00664281712441367</v>
       </c>
       <c r="Q9">
-        <v>11.43863338056978</v>
+        <v>70.67779458848133</v>
       </c>
       <c r="R9">
-        <v>102.947700425128</v>
+        <v>424.0667675308879</v>
       </c>
       <c r="S9">
-        <v>0.0004010942028943405</v>
+        <v>0.003160808660469641</v>
       </c>
       <c r="T9">
-        <v>0.0004217949368819667</v>
+        <v>0.002336720807371614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>222.0648293333334</v>
+        <v>91.80301666666666</v>
       </c>
       <c r="H10">
-        <v>666.1944880000001</v>
+        <v>275.40905</v>
       </c>
       <c r="I10">
-        <v>0.340678132008771</v>
+        <v>0.131574552705018</v>
       </c>
       <c r="J10">
-        <v>0.3576385543082982</v>
+        <v>0.1454225317558724</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.227952</v>
+        <v>31.61349966666667</v>
       </c>
       <c r="N10">
-        <v>0.455904</v>
+        <v>94.84049899999999</v>
       </c>
       <c r="O10">
-        <v>0.005210161368904347</v>
+        <v>0.9864449253320818</v>
       </c>
       <c r="P10">
-        <v>0.003479483803301461</v>
+        <v>0.9897213119532253</v>
       </c>
       <c r="Q10">
-        <v>50.620121976192</v>
+        <v>2902.214636790661</v>
       </c>
       <c r="R10">
-        <v>303.720731857152</v>
+        <v>26119.93173111595</v>
       </c>
       <c r="S10">
-        <v>0.001774988042622594</v>
+        <v>0.1297910498187035</v>
       </c>
       <c r="T10">
-        <v>0.001244397557151873</v>
+        <v>0.1439277789169816</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>222.0648293333334</v>
+        <v>91.80301666666666</v>
       </c>
       <c r="H11">
-        <v>666.1944880000001</v>
+        <v>275.40905</v>
       </c>
       <c r="I11">
-        <v>0.340678132008771</v>
+        <v>0.131574552705018</v>
       </c>
       <c r="J11">
-        <v>0.3576385543082982</v>
+        <v>0.1454225317558724</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.030416</v>
+        <v>0.064626</v>
       </c>
       <c r="N11">
-        <v>0.091248</v>
+        <v>0.193878</v>
       </c>
       <c r="O11">
-        <v>0.000695200165809445</v>
+        <v>0.002016543262109296</v>
       </c>
       <c r="P11">
-        <v>0.0006964096346679382</v>
+        <v>0.002023241026166126</v>
       </c>
       <c r="Q11">
-        <v>6.754323849002668</v>
+        <v>5.9328617551</v>
       </c>
       <c r="R11">
-        <v>60.78891464102401</v>
+        <v>53.39575579589999</v>
       </c>
       <c r="S11">
-        <v>0.0002368394938601496</v>
+        <v>0.0002653257777223484</v>
       </c>
       <c r="T11">
-        <v>0.0002490629349490115</v>
+        <v>0.0002942248323774273</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.95694233333334</v>
+        <v>91.80301666666666</v>
       </c>
       <c r="H12">
-        <v>260.870827</v>
+        <v>275.40905</v>
       </c>
       <c r="I12">
-        <v>0.1334039648162674</v>
+        <v>0.131574552705018</v>
       </c>
       <c r="J12">
-        <v>0.1400453878109693</v>
+        <v>0.1454225317558724</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>43.37692366666667</v>
+        <v>0.05151033333333333</v>
       </c>
       <c r="N12">
-        <v>130.130771</v>
+        <v>0.154531</v>
       </c>
       <c r="O12">
-        <v>0.9914401803448945</v>
+        <v>0.001607291424694971</v>
       </c>
       <c r="P12">
-        <v>0.9931650303696206</v>
+        <v>0.001612629896194914</v>
       </c>
       <c r="Q12">
-        <v>3771.924649879736</v>
+        <v>4.728803989505555</v>
       </c>
       <c r="R12">
-        <v>33947.32184891762</v>
+        <v>42.55923590555</v>
       </c>
       <c r="S12">
-        <v>0.1322620509361641</v>
+        <v>0.0002114786502708518</v>
       </c>
       <c r="T12">
-        <v>0.1390881818384066</v>
+        <v>0.0002345127222898742</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.95694233333334</v>
+        <v>91.80301666666666</v>
       </c>
       <c r="H13">
-        <v>260.870827</v>
+        <v>275.40905</v>
       </c>
       <c r="I13">
-        <v>0.1334039648162674</v>
+        <v>0.131574552705018</v>
       </c>
       <c r="J13">
-        <v>0.1400453878109693</v>
+        <v>0.1454225317558724</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.064626</v>
+        <v>0.3182755</v>
       </c>
       <c r="N13">
-        <v>0.193878</v>
+        <v>0.636551</v>
       </c>
       <c r="O13">
-        <v>0.001477117501170476</v>
+        <v>0.009931239981113902</v>
       </c>
       <c r="P13">
-        <v>0.001479687304380924</v>
+        <v>0.00664281712441367</v>
       </c>
       <c r="Q13">
-        <v>5.619679355234001</v>
+        <v>29.21865103109166</v>
       </c>
       <c r="R13">
-        <v>50.577114197106</v>
+        <v>175.31190618655</v>
       </c>
       <c r="S13">
-        <v>0.000197053331155639</v>
+        <v>0.001306698458321253</v>
       </c>
       <c r="T13">
-        <v>0.0002072233823809943</v>
+        <v>0.0009660152842235002</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>86.95694233333334</v>
+        <v>199.324646</v>
       </c>
       <c r="H14">
-        <v>260.870827</v>
+        <v>398.649292</v>
       </c>
       <c r="I14">
-        <v>0.1334039648162674</v>
+        <v>0.2856774438661625</v>
       </c>
       <c r="J14">
-        <v>0.1400453878109693</v>
+        <v>0.2104963120323245</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.05151033333333333</v>
+        <v>31.61349966666667</v>
       </c>
       <c r="N14">
-        <v>0.154531</v>
+        <v>94.84049899999999</v>
       </c>
       <c r="O14">
-        <v>0.001177340619221236</v>
+        <v>0.9864449253320818</v>
       </c>
       <c r="P14">
-        <v>0.001179388888029011</v>
+        <v>0.9897213119532253</v>
       </c>
       <c r="Q14">
-        <v>4.479181085237445</v>
+        <v>6301.349629879452</v>
       </c>
       <c r="R14">
-        <v>40.312629767137</v>
+        <v>37808.09777927671</v>
       </c>
       <c r="S14">
-        <v>0.0001570619065433523</v>
+        <v>0.2818050647836167</v>
       </c>
       <c r="T14">
-        <v>0.0001651679742039706</v>
+        <v>0.2083326861059477</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,87 +1337,87 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>86.95694233333334</v>
+        <v>199.324646</v>
       </c>
       <c r="H15">
-        <v>260.870827</v>
+        <v>398.649292</v>
       </c>
       <c r="I15">
-        <v>0.1334039648162674</v>
+        <v>0.2856774438661625</v>
       </c>
       <c r="J15">
-        <v>0.1400453878109693</v>
+        <v>0.2104963120323245</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.227952</v>
+        <v>0.064626</v>
       </c>
       <c r="N15">
-        <v>0.455904</v>
+        <v>0.193878</v>
       </c>
       <c r="O15">
-        <v>0.005210161368904347</v>
+        <v>0.002016543262109296</v>
       </c>
       <c r="P15">
-        <v>0.003479483803301461</v>
+        <v>0.002023241026166126</v>
       </c>
       <c r="Q15">
-        <v>19.822008918768</v>
+        <v>12.881554572396</v>
       </c>
       <c r="R15">
-        <v>118.932053512608</v>
+        <v>77.28932743437601</v>
       </c>
       <c r="S15">
-        <v>0.0006950561839443911</v>
+        <v>0.0005760809245649166</v>
       </c>
       <c r="T15">
-        <v>0.0004872856586153395</v>
+        <v>0.0004258847743604652</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>86.95694233333334</v>
+        <v>199.324646</v>
       </c>
       <c r="H16">
-        <v>260.870827</v>
+        <v>398.649292</v>
       </c>
       <c r="I16">
-        <v>0.1334039648162674</v>
+        <v>0.2856774438661625</v>
       </c>
       <c r="J16">
-        <v>0.1400453878109693</v>
+        <v>0.2104963120323245</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.030416</v>
+        <v>0.05151033333333333</v>
       </c>
       <c r="N16">
-        <v>0.091248</v>
+        <v>0.154531</v>
       </c>
       <c r="O16">
-        <v>0.000695200165809445</v>
+        <v>0.001607291424694971</v>
       </c>
       <c r="P16">
-        <v>0.0006964096346679382</v>
+        <v>0.001612629896194914</v>
       </c>
       <c r="Q16">
-        <v>2.644882358010667</v>
+        <v>10.26727895700867</v>
       </c>
       <c r="R16">
-        <v>23.803941222096</v>
+        <v>61.603673742052</v>
       </c>
       <c r="S16">
-        <v>9.274245845990647E-05</v>
+        <v>0.0004591669057548618</v>
       </c>
       <c r="T16">
-        <v>9.752895736236686E-05</v>
+        <v>0.0003394526458220998</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>92.73616000000001</v>
+        <v>199.324646</v>
       </c>
       <c r="H17">
-        <v>185.47232</v>
+        <v>398.649292</v>
       </c>
       <c r="I17">
-        <v>0.14227008326043</v>
+        <v>0.2856774438661625</v>
       </c>
       <c r="J17">
-        <v>0.09956859983657813</v>
+        <v>0.2104963120323245</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.37692366666667</v>
+        <v>0.3182755</v>
       </c>
       <c r="N17">
-        <v>130.130771</v>
+        <v>0.636551</v>
       </c>
       <c r="O17">
-        <v>0.9914401803448945</v>
+        <v>0.009931239981113902</v>
       </c>
       <c r="P17">
-        <v>0.9931650303696206</v>
+        <v>0.00664281712441367</v>
       </c>
       <c r="Q17">
-        <v>4022.609333459788</v>
+        <v>63.440151367973</v>
       </c>
       <c r="R17">
-        <v>24135.65600075872</v>
+        <v>253.760605471892</v>
       </c>
       <c r="S17">
-        <v>0.1410522770054039</v>
+        <v>0.002837131252226055</v>
       </c>
       <c r="T17">
-        <v>0.09888805148055572</v>
+        <v>0.001398288506194249</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>92.73616000000001</v>
+        <v>90.13072433333333</v>
       </c>
       <c r="H18">
-        <v>185.47232</v>
+        <v>270.392173</v>
       </c>
       <c r="I18">
-        <v>0.14227008326043</v>
+        <v>0.1291777783533723</v>
       </c>
       <c r="J18">
-        <v>0.09956859983657813</v>
+        <v>0.1427735013233293</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.064626</v>
+        <v>31.61349966666667</v>
       </c>
       <c r="N18">
-        <v>0.193878</v>
+        <v>94.84049899999999</v>
       </c>
       <c r="O18">
-        <v>0.001477117501170476</v>
+        <v>0.9864449253320818</v>
       </c>
       <c r="P18">
-        <v>0.001479687304380924</v>
+        <v>0.9897213119532253</v>
       </c>
       <c r="Q18">
-        <v>5.993167076160001</v>
+        <v>2849.347623668259</v>
       </c>
       <c r="R18">
-        <v>35.95900245696</v>
+        <v>25644.12861301433</v>
       </c>
       <c r="S18">
-        <v>0.0002101496298769619</v>
+        <v>0.1274267639223566</v>
       </c>
       <c r="T18">
-        <v>0.0001473303930931692</v>
+        <v>0.141305977041881</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,25 +1585,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>92.73616000000001</v>
+        <v>90.13072433333333</v>
       </c>
       <c r="H19">
-        <v>185.47232</v>
+        <v>270.392173</v>
       </c>
       <c r="I19">
-        <v>0.14227008326043</v>
+        <v>0.1291777783533723</v>
       </c>
       <c r="J19">
-        <v>0.09956859983657813</v>
+        <v>0.1427735013233293</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,33 +1612,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.05151033333333333</v>
+        <v>0.064626</v>
       </c>
       <c r="N19">
-        <v>0.154531</v>
+        <v>0.193878</v>
       </c>
       <c r="O19">
-        <v>0.001177340619221236</v>
+        <v>0.002016543262109296</v>
       </c>
       <c r="P19">
-        <v>0.001179388888029011</v>
+        <v>0.002023241026166126</v>
       </c>
       <c r="Q19">
-        <v>4.776870513653334</v>
+        <v>5.824788190766</v>
       </c>
       <c r="R19">
-        <v>28.66122308192</v>
+        <v>52.423093716894</v>
       </c>
       <c r="S19">
-        <v>0.0001675003479224915</v>
+        <v>0.000260492578552741</v>
       </c>
       <c r="T19">
-        <v>0.0001174301002438674</v>
+        <v>0.0002888652053267434</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>92.73616000000001</v>
+        <v>90.13072433333333</v>
       </c>
       <c r="H20">
-        <v>185.47232</v>
+        <v>270.392173</v>
       </c>
       <c r="I20">
-        <v>0.14227008326043</v>
+        <v>0.1291777783533723</v>
       </c>
       <c r="J20">
-        <v>0.09956859983657813</v>
+        <v>0.1427735013233293</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.227952</v>
+        <v>0.05151033333333333</v>
       </c>
       <c r="N20">
-        <v>0.455904</v>
+        <v>0.154531</v>
       </c>
       <c r="O20">
-        <v>0.005210161368904347</v>
+        <v>0.001607291424694971</v>
       </c>
       <c r="P20">
-        <v>0.003479483803301461</v>
+        <v>0.001612629896194914</v>
       </c>
       <c r="Q20">
-        <v>21.13939314432</v>
+        <v>4.642663653984777</v>
       </c>
       <c r="R20">
-        <v>84.55757257728001</v>
+        <v>41.783972885863</v>
       </c>
       <c r="S20">
-        <v>0.0007412500917542973</v>
+        <v>0.000207626335408523</v>
       </c>
       <c r="T20">
-        <v>0.0003464473304487781</v>
+        <v>0.0002302408166184249</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>90.13072433333333</v>
+      </c>
+      <c r="H21">
+        <v>270.392173</v>
+      </c>
+      <c r="I21">
+        <v>0.1291777783533723</v>
+      </c>
+      <c r="J21">
+        <v>0.1427735013233293</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>92.73616000000001</v>
-      </c>
-      <c r="H21">
-        <v>185.47232</v>
-      </c>
-      <c r="I21">
-        <v>0.14227008326043</v>
-      </c>
-      <c r="J21">
-        <v>0.09956859983657813</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.030416</v>
+        <v>0.3182755</v>
       </c>
       <c r="N21">
-        <v>0.091248</v>
+        <v>0.636551</v>
       </c>
       <c r="O21">
-        <v>0.000695200165809445</v>
+        <v>0.009931239981113902</v>
       </c>
       <c r="P21">
-        <v>0.0006964096346679382</v>
+        <v>0.00664281712441367</v>
       </c>
       <c r="Q21">
-        <v>2.82066304256</v>
+        <v>28.68640135255383</v>
       </c>
       <c r="R21">
-        <v>16.92397825536</v>
+        <v>172.118408115323</v>
       </c>
       <c r="S21">
-        <v>9.890618547237448E-05</v>
+        <v>0.001282895517054481</v>
       </c>
       <c r="T21">
-        <v>6.93405322365895E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>153.4727276666667</v>
-      </c>
-      <c r="H22">
-        <v>460.4181829999999</v>
-      </c>
-      <c r="I22">
-        <v>0.2354483703373308</v>
-      </c>
-      <c r="J22">
-        <v>0.2471700026214768</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>43.37692366666667</v>
-      </c>
-      <c r="N22">
-        <v>130.130771</v>
-      </c>
-      <c r="O22">
-        <v>0.9914401803448945</v>
-      </c>
-      <c r="P22">
-        <v>0.9931650303696206</v>
-      </c>
-      <c r="Q22">
-        <v>6657.174792912121</v>
-      </c>
-      <c r="R22">
-        <v>59914.57313620909</v>
-      </c>
-      <c r="S22">
-        <v>0.2334329747491547</v>
-      </c>
-      <c r="T22">
-        <v>0.2454806031600182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>153.4727276666667</v>
-      </c>
-      <c r="H23">
-        <v>460.4181829999999</v>
-      </c>
-      <c r="I23">
-        <v>0.2354483703373308</v>
-      </c>
-      <c r="J23">
-        <v>0.2471700026214768</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.064626</v>
-      </c>
-      <c r="N23">
-        <v>0.193878</v>
-      </c>
-      <c r="O23">
-        <v>0.001477117501170476</v>
-      </c>
-      <c r="P23">
-        <v>0.001479687304380924</v>
-      </c>
-      <c r="Q23">
-        <v>9.918328498186</v>
-      </c>
-      <c r="R23">
-        <v>89.26495648367398</v>
-      </c>
-      <c r="S23">
-        <v>0.0003477849084473389</v>
-      </c>
-      <c r="T23">
-        <v>0.0003657343149027989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>153.4727276666667</v>
-      </c>
-      <c r="H24">
-        <v>460.4181829999999</v>
-      </c>
-      <c r="I24">
-        <v>0.2354483703373308</v>
-      </c>
-      <c r="J24">
-        <v>0.2471700026214768</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.05151033333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.154531</v>
-      </c>
-      <c r="O24">
-        <v>0.001177340619221236</v>
-      </c>
-      <c r="P24">
-        <v>0.001179388888029011</v>
-      </c>
-      <c r="Q24">
-        <v>7.905431359685888</v>
-      </c>
-      <c r="R24">
-        <v>71.148882237173</v>
-      </c>
-      <c r="S24">
-        <v>0.0002772029301275839</v>
-      </c>
-      <c r="T24">
-        <v>0.0002915095545458712</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>153.4727276666667</v>
-      </c>
-      <c r="H25">
-        <v>460.4181829999999</v>
-      </c>
-      <c r="I25">
-        <v>0.2354483703373308</v>
-      </c>
-      <c r="J25">
-        <v>0.2471700026214768</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.227952</v>
-      </c>
-      <c r="N25">
-        <v>0.455904</v>
-      </c>
-      <c r="O25">
-        <v>0.005210161368904347</v>
-      </c>
-      <c r="P25">
-        <v>0.003479483803301461</v>
-      </c>
-      <c r="Q25">
-        <v>34.984415217072</v>
-      </c>
-      <c r="R25">
-        <v>209.906491302432</v>
-      </c>
-      <c r="S25">
-        <v>0.001226724003503045</v>
-      </c>
-      <c r="T25">
-        <v>0.0008600240207834081</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>153.4727276666667</v>
-      </c>
-      <c r="H26">
-        <v>460.4181829999999</v>
-      </c>
-      <c r="I26">
-        <v>0.2354483703373308</v>
-      </c>
-      <c r="J26">
-        <v>0.2471700026214768</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.030416</v>
-      </c>
-      <c r="N26">
-        <v>0.091248</v>
-      </c>
-      <c r="O26">
-        <v>0.000695200165809445</v>
-      </c>
-      <c r="P26">
-        <v>0.0006964096346679382</v>
-      </c>
-      <c r="Q26">
-        <v>4.668026484709332</v>
-      </c>
-      <c r="R26">
-        <v>42.01223836238399</v>
-      </c>
-      <c r="S26">
-        <v>0.000163683746098076</v>
-      </c>
-      <c r="T26">
-        <v>0.000172131571226496</v>
+        <v>0.0009484182595031095</v>
       </c>
     </row>
   </sheetData>
